--- a/Code/R/Magnan/PerfSearch_RF_mRMR_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_mRMR_comb.xlsx
@@ -815,9 +815,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1219,11 +1217,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72657920"/>
-        <c:axId val="73462528"/>
+        <c:axId val="72534656"/>
+        <c:axId val="81453056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72657920"/>
+        <c:axId val="72534656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -1234,12 +1232,12 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73462528"/>
+        <c:crossAx val="81453056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73462528"/>
+        <c:axId val="81453056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000064"/>
@@ -1250,20 +1248,19 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72657920"/>
+        <c:crossAx val="72534656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2865,23 +2862,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="73755648"/>
-        <c:axId val="73761536"/>
+        <c:axId val="82742656"/>
+        <c:axId val="85879424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73755648"/>
+        <c:axId val="82742656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73761536"/>
+        <c:crossAx val="85879424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73761536"/>
+        <c:axId val="85879424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,20 +2886,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73755648"/>
+        <c:crossAx val="82742656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4936,23 +4932,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="74410240"/>
-        <c:axId val="74416128"/>
+        <c:axId val="81417728"/>
+        <c:axId val="81419264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74410240"/>
+        <c:axId val="81417728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74416128"/>
+        <c:crossAx val="81419264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74416128"/>
+        <c:axId val="81419264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4960,20 +4956,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74410240"/>
+        <c:crossAx val="81417728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4983,9 +4978,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5627,23 +5620,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="74440064"/>
-        <c:axId val="74466432"/>
+        <c:axId val="82639488"/>
+        <c:axId val="82657664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74440064"/>
+        <c:axId val="82639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74466432"/>
+        <c:crossAx val="82657664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74466432"/>
+        <c:axId val="82657664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5651,20 +5644,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74440064"/>
+        <c:crossAx val="82639488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5674,9 +5666,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -6078,11 +6068,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="88851968"/>
-        <c:axId val="88853504"/>
+        <c:axId val="83100032"/>
+        <c:axId val="83101568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88851968"/>
+        <c:axId val="83100032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="650"/>
@@ -6091,12 +6081,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88853504"/>
+        <c:crossAx val="83101568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88853504"/>
+        <c:axId val="83101568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000064"/>
@@ -6107,20 +6097,19 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88851968"/>
+        <c:crossAx val="83100032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7703,23 +7692,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="102382592"/>
-        <c:axId val="102404864"/>
+        <c:axId val="85018496"/>
+        <c:axId val="85020032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102382592"/>
+        <c:axId val="85018496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102404864"/>
+        <c:crossAx val="85020032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102404864"/>
+        <c:axId val="85020032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7727,20 +7716,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102382592"/>
+        <c:crossAx val="85018496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7750,9 +7738,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -8394,23 +8380,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="102286080"/>
-        <c:axId val="102287616"/>
+        <c:axId val="85044224"/>
+        <c:axId val="85050112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102286080"/>
+        <c:axId val="85044224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102287616"/>
+        <c:crossAx val="85050112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102287616"/>
+        <c:axId val="85050112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8418,20 +8404,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102286080"/>
+        <c:crossAx val="85044224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10065,9 +10050,9 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B101"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43:I47"/>
+      <selection pane="bottomLeft" activeCell="I1" activeCellId="7" sqref="B1:B1048576 C1:C1048576 E1:E1048576 F1:F1048576 G1:G1048576 H1 H1:H1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11497,7 +11482,7 @@
         <v>0.44508673864292297</v>
       </c>
       <c r="K3">
-        <f>(J3-J2)/J2*100</f>
+        <f t="shared" ref="K3:K34" si="0">(J3-J2)/J2*100</f>
         <v>9.4911746986856187</v>
       </c>
     </row>
@@ -11533,7 +11518,7 @@
         <v>0.44616586202444503</v>
       </c>
       <c r="K4">
-        <f>(J4-J3)/J3*100</f>
+        <f t="shared" si="0"/>
         <v>0.24245237789207491</v>
       </c>
     </row>
@@ -11569,7 +11554,7 @@
         <v>0.46776803479649198</v>
       </c>
       <c r="K5">
-        <f>(J5-J4)/J4*100</f>
+        <f t="shared" si="0"/>
         <v>4.8417359127452455</v>
       </c>
     </row>
@@ -11605,7 +11590,7 @@
         <v>0.46392513961437898</v>
       </c>
       <c r="K6">
-        <f>(J6-J5)/J5*100</f>
+        <f t="shared" si="0"/>
         <v>-0.82153864656119591</v>
       </c>
     </row>
@@ -11641,7 +11626,7 @@
         <v>0.47739238049380101</v>
       </c>
       <c r="K7">
-        <f>(J7-J6)/J6*100</f>
+        <f t="shared" si="0"/>
         <v>2.9028909471506945</v>
       </c>
     </row>
@@ -11677,7 +11662,7 @@
         <v>0.470997928998663</v>
       </c>
       <c r="K8">
-        <f>(J8-J7)/J7*100</f>
+        <f t="shared" si="0"/>
         <v>-1.3394540332888791</v>
       </c>
     </row>
@@ -11713,7 +11698,7 @@
         <v>0.47319070439357303</v>
       </c>
       <c r="K9">
-        <f>(J9-J8)/J8*100</f>
+        <f t="shared" si="0"/>
         <v>0.46555945576487962</v>
       </c>
     </row>
@@ -11749,7 +11734,7 @@
         <v>0.47032296704229398</v>
       </c>
       <c r="K10">
-        <f>(J10-J9)/J9*100</f>
+        <f t="shared" si="0"/>
         <v>-0.60604262185459645</v>
       </c>
     </row>
@@ -11785,7 +11770,7 @@
         <v>0.47983863064031101</v>
       </c>
       <c r="K11">
-        <f>(J11-J10)/J10*100</f>
+        <f t="shared" si="0"/>
         <v>2.0232189930799898</v>
       </c>
     </row>
@@ -11821,7 +11806,7 @@
         <v>0.48844308672685499</v>
       </c>
       <c r="K12">
-        <f>(J12-J11)/J11*100</f>
+        <f t="shared" si="0"/>
         <v>1.7931978663455947</v>
       </c>
     </row>
@@ -11857,7 +11842,7 @@
         <v>0.48696591819582602</v>
       </c>
       <c r="K13">
-        <f>(J13-J12)/J12*100</f>
+        <f t="shared" si="0"/>
         <v>-0.30242387929528164</v>
       </c>
     </row>
@@ -11893,7 +11878,7 @@
         <v>0.47767843336238103</v>
       </c>
       <c r="K14">
-        <f>(J14-J13)/J13*100</f>
+        <f t="shared" si="0"/>
         <v>-1.9072145475507734</v>
       </c>
     </row>
@@ -11929,7 +11914,7 @@
         <v>0.46743603176340198</v>
       </c>
       <c r="K15">
-        <f>(J15-J14)/J14*100</f>
+        <f t="shared" si="0"/>
         <v>-2.1442043189772511</v>
       </c>
     </row>
@@ -11965,7 +11950,7 @@
         <v>0.47953121808821803</v>
       </c>
       <c r="K16">
-        <f>(J16-J15)/J15*100</f>
+        <f t="shared" si="0"/>
         <v>2.5875596879399656</v>
       </c>
     </row>
@@ -12001,7 +11986,7 @@
         <v>0.48607976046113999</v>
       </c>
       <c r="K17">
-        <f>(J17-J16)/J16*100</f>
+        <f t="shared" si="0"/>
         <v>1.3656133586108348</v>
       </c>
     </row>
@@ -12037,7 +12022,7 @@
         <v>0.47437702068911303</v>
       </c>
       <c r="K18">
-        <f>(J18-J17)/J17*100</f>
+        <f t="shared" si="0"/>
         <v>-2.407576024339023</v>
       </c>
     </row>
@@ -12073,7 +12058,7 @@
         <v>0.47727153967392799</v>
       </c>
       <c r="K19">
-        <f>(J19-J18)/J18*100</f>
+        <f t="shared" si="0"/>
         <v>0.61017268092164012</v>
       </c>
     </row>
@@ -12109,7 +12094,7 @@
         <v>0.482933512999207</v>
       </c>
       <c r="K20">
-        <f>(J20-J19)/J19*100</f>
+        <f t="shared" si="0"/>
         <v>1.1863211724602882</v>
       </c>
     </row>
@@ -12145,7 +12130,7 @@
         <v>0.48272743390694101</v>
       </c>
       <c r="K21">
-        <f>(J21-J20)/J20*100</f>
+        <f t="shared" si="0"/>
         <v>-4.2672352760562443E-2</v>
       </c>
     </row>
@@ -12181,7 +12166,7 @@
         <v>0.47902453497396302</v>
       </c>
       <c r="K22">
-        <f>(J22-J21)/J21*100</f>
+        <f t="shared" si="0"/>
         <v>-0.76707861888202078</v>
       </c>
     </row>
@@ -12217,7 +12202,7 @@
         <v>0.48373419197722001</v>
       </c>
       <c r="K23">
-        <f>(J23-J22)/J22*100</f>
+        <f t="shared" si="0"/>
         <v>0.98317657226325017</v>
       </c>
     </row>
@@ -12253,7 +12238,7 @@
         <v>0.48701880500470102</v>
       </c>
       <c r="K24">
-        <f>(J24-J23)/J23*100</f>
+        <f t="shared" si="0"/>
         <v>0.67901196193211999</v>
       </c>
     </row>
@@ -12289,7 +12274,7 @@
         <v>0.48910794205046498</v>
       </c>
       <c r="K25">
-        <f>(J25-J24)/J24*100</f>
+        <f t="shared" si="0"/>
         <v>0.42896434887022505</v>
       </c>
     </row>
@@ -12325,7 +12310,7 @@
         <v>0.47695005534678397</v>
       </c>
       <c r="K26">
-        <f>(J26-J25)/J25*100</f>
+        <f t="shared" si="0"/>
         <v>-2.4857266992459892</v>
       </c>
     </row>
@@ -12361,7 +12346,7 @@
         <v>0.491596054708202</v>
       </c>
       <c r="K27" s="2">
-        <f>(J27-J26)/J26*100</f>
+        <f t="shared" si="0"/>
         <v>3.0707616441661001</v>
       </c>
       <c r="L27" s="2" t="s">
@@ -12400,7 +12385,7 @@
         <v>0.482260839512265</v>
       </c>
       <c r="K28">
-        <f>(J28-J27)/J27*100</f>
+        <f t="shared" si="0"/>
         <v>-1.8989605605110329</v>
       </c>
     </row>
@@ -12436,7 +12421,7 @@
         <v>0.48203604464738797</v>
       </c>
       <c r="K29">
-        <f>(J29-J28)/J28*100</f>
+        <f t="shared" si="0"/>
         <v>-4.661271379703523E-2</v>
       </c>
     </row>
@@ -12472,7 +12457,7 @@
         <v>0.48569370401155398</v>
       </c>
       <c r="K30">
-        <f>(J30-J29)/J29*100</f>
+        <f t="shared" si="0"/>
         <v>0.75879374681235889</v>
       </c>
     </row>
@@ -12508,7 +12493,7 @@
         <v>0.46965380548635599</v>
       </c>
       <c r="K31">
-        <f>(J31-J30)/J30*100</f>
+        <f t="shared" si="0"/>
         <v>-3.302471988563481</v>
       </c>
     </row>
@@ -12544,7 +12529,7 @@
         <v>0.48763474829081499</v>
       </c>
       <c r="K32">
-        <f>(J32-J31)/J31*100</f>
+        <f t="shared" si="0"/>
         <v>3.8285525624217192</v>
       </c>
     </row>
@@ -12580,7 +12565,7 @@
         <v>0.49013285628736403</v>
       </c>
       <c r="K33">
-        <f>(J33-J32)/J32*100</f>
+        <f t="shared" si="0"/>
         <v>0.51229080891077483</v>
       </c>
     </row>
@@ -12616,7 +12601,7 @@
         <v>0.48137006511806502</v>
       </c>
       <c r="K34">
-        <f>(J34-J33)/J33*100</f>
+        <f t="shared" si="0"/>
         <v>-1.7878399819336743</v>
       </c>
     </row>
@@ -12652,7 +12637,7 @@
         <v>0.48360011562567701</v>
       </c>
       <c r="K35">
-        <f>(J35-J34)/J34*100</f>
+        <f t="shared" ref="K35:K61" si="1">(J35-J34)/J34*100</f>
         <v>0.46327153872042909</v>
       </c>
     </row>
@@ -12688,7 +12673,7 @@
         <v>0.48398891534689298</v>
       </c>
       <c r="K36">
-        <f>(J36-J35)/J35*100</f>
+        <f t="shared" si="1"/>
         <v>8.0396945462460415E-2</v>
       </c>
     </row>
@@ -12724,7 +12709,7 @@
         <v>0.48809425433214398</v>
       </c>
       <c r="K37">
-        <f>(J37-J36)/J36*100</f>
+        <f t="shared" si="1"/>
         <v>0.84822996045447774</v>
       </c>
     </row>
@@ -12760,7 +12745,7 @@
         <v>0.48542559177108302</v>
       </c>
       <c r="K38">
-        <f>(J38-J37)/J37*100</f>
+        <f t="shared" si="1"/>
         <v>-0.54675148034931831</v>
       </c>
     </row>
@@ -12796,7 +12781,7 @@
         <v>0.47362660563764403</v>
       </c>
       <c r="K39">
-        <f>(J39-J38)/J38*100</f>
+        <f t="shared" si="1"/>
         <v>-2.4306477312805459</v>
       </c>
       <c r="L39" s="5"/>
@@ -12833,7 +12818,7 @@
         <v>0.484940160851493</v>
       </c>
       <c r="K40">
-        <f>(J40-J39)/J39*100</f>
+        <f t="shared" si="1"/>
         <v>2.3887077033220119</v>
       </c>
     </row>
@@ -12869,7 +12854,7 @@
         <v>0.48479574128327202</v>
       </c>
       <c r="K41">
-        <f>(J41-J40)/J40*100</f>
+        <f t="shared" si="1"/>
         <v>-2.9780904919772921E-2</v>
       </c>
     </row>
@@ -12905,7 +12890,7 @@
         <v>0.48763281613596998</v>
       </c>
       <c r="K42">
-        <f>(J42-J41)/J41*100</f>
+        <f t="shared" si="1"/>
         <v>0.58521034965945085</v>
       </c>
     </row>
@@ -12941,7 +12926,7 @@
         <v>0.48451995708067602</v>
       </c>
       <c r="K43">
-        <f>(J43-J42)/J42*100</f>
+        <f t="shared" si="1"/>
         <v>-0.63836127354193073</v>
       </c>
     </row>
@@ -12977,7 +12962,7 @@
         <v>0.49106726587178101</v>
       </c>
       <c r="K44">
-        <f>(J44-J43)/J43*100</f>
+        <f t="shared" si="1"/>
         <v>1.3512980622209574</v>
       </c>
     </row>
@@ -13013,7 +12998,7 @@
         <v>0.49612988700219601</v>
       </c>
       <c r="K45">
-        <f>(J45-J44)/J44*100</f>
+        <f t="shared" si="1"/>
         <v>1.0309424965289513</v>
       </c>
     </row>
@@ -13049,7 +13034,7 @@
         <v>0.49810687456149599</v>
       </c>
       <c r="K46">
-        <f>(J46-J45)/J45*100</f>
+        <f t="shared" si="1"/>
         <v>0.39848185144533133</v>
       </c>
     </row>
@@ -13085,7 +13070,7 @@
         <v>0.496322236587249</v>
       </c>
       <c r="K47">
-        <f>(J47-J46)/J46*100</f>
+        <f t="shared" si="1"/>
         <v>-0.35828414852095436</v>
       </c>
     </row>
@@ -13121,7 +13106,7 @@
         <v>0.48797417012746003</v>
       </c>
       <c r="K48">
-        <f>(J48-J47)/J47*100</f>
+        <f t="shared" si="1"/>
         <v>-1.6819851790624853</v>
       </c>
     </row>
@@ -13157,7 +13142,7 @@
         <v>0.49649718073610599</v>
       </c>
       <c r="K49">
-        <f>(J49-J48)/J48*100</f>
+        <f t="shared" si="1"/>
         <v>1.7466110155830039</v>
       </c>
     </row>
@@ -13193,7 +13178,7 @@
         <v>0.48986952084227697</v>
       </c>
       <c r="K50">
-        <f>(J50-J49)/J49*100</f>
+        <f t="shared" si="1"/>
         <v>-1.3348836913842814</v>
       </c>
     </row>
@@ -13229,7 +13214,7 @@
         <v>0.48435061548423902</v>
       </c>
       <c r="K51" s="5">
-        <f>(J51-J50)/J50*100</f>
+        <f t="shared" si="1"/>
         <v>-1.1266072133960892</v>
       </c>
       <c r="L51"/>
@@ -13266,7 +13251,7 @@
         <v>0.495197814994911</v>
       </c>
       <c r="K52">
-        <f>(J52-J51)/J51*100</f>
+        <f t="shared" si="1"/>
         <v>2.2395345776173485</v>
       </c>
     </row>
@@ -13302,7 +13287,7 @@
         <v>0.49268260094640398</v>
       </c>
       <c r="K53">
-        <f>(J53-J52)/J52*100</f>
+        <f t="shared" si="1"/>
         <v>-0.50792107160910382</v>
       </c>
     </row>
@@ -13338,7 +13323,7 @@
         <v>0.50130204928993305</v>
       </c>
       <c r="K54" s="2">
-        <f>(J54-J53)/J53*100</f>
+        <f t="shared" si="1"/>
         <v>1.7494931477125018</v>
       </c>
       <c r="L54" s="2" t="s">
@@ -13377,7 +13362,7 @@
         <v>0.49091362000969102</v>
       </c>
       <c r="K55">
-        <f>(J55-J54)/J54*100</f>
+        <f t="shared" si="1"/>
         <v>-2.0722894101383926</v>
       </c>
     </row>
@@ -13413,7 +13398,7 @@
         <v>0.49502859388729098</v>
       </c>
       <c r="K56">
-        <f>(J56-J55)/J55*100</f>
+        <f t="shared" si="1"/>
         <v>0.83822768606801468</v>
       </c>
     </row>
@@ -13449,7 +13434,7 @@
         <v>0.49689211116767801</v>
       </c>
       <c r="K57">
-        <f>(J57-J56)/J56*100</f>
+        <f t="shared" si="1"/>
         <v>0.37644639186465201</v>
       </c>
     </row>
@@ -13485,7 +13470,7 @@
         <v>0.49156289851999202</v>
       </c>
       <c r="K58">
-        <f>(J58-J57)/J57*100</f>
+        <f t="shared" si="1"/>
         <v>-1.0725090070684633</v>
       </c>
     </row>
@@ -13521,7 +13506,7 @@
         <v>0.49242148835612098</v>
       </c>
       <c r="K59">
-        <f>(J59-J58)/J58*100</f>
+        <f t="shared" si="1"/>
         <v>0.17466530503299271</v>
       </c>
       <c r="L59" t="s">
@@ -13560,7 +13545,7 @@
         <v>0.49155411019184803</v>
       </c>
       <c r="K60">
-        <f>(J60-J59)/J59*100</f>
+        <f t="shared" si="1"/>
         <v>-0.17614547390459681</v>
       </c>
     </row>
@@ -13596,7 +13581,7 @@
         <v>0.50112022923497401</v>
       </c>
       <c r="K61">
-        <f>(J61-J60)/J60*100</f>
+        <f t="shared" si="1"/>
         <v>1.9460968476883327</v>
       </c>
       <c r="L61" t="s">
@@ -19046,8 +19031,8 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43:I47"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" activeCellId="6" sqref="C1:C1048576 E1:E1048576 F1:F1048576 G1:G1048576 B1:B1048576 H1:H1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20499,7 +20484,7 @@
         <v>0.46605571118891798</v>
       </c>
       <c r="K3">
-        <f>(J3-J2)/J2*100</f>
+        <f t="shared" ref="K3:K34" si="0">(J3-J2)/J2*100</f>
         <v>13.391234434629956</v>
       </c>
       <c r="L3"/>
@@ -20536,7 +20521,7 @@
         <v>0.47333911966381698</v>
       </c>
       <c r="K4">
-        <f>(J4-J3)/J3*100</f>
+        <f t="shared" si="0"/>
         <v>1.5627763591436035</v>
       </c>
       <c r="L4"/>
@@ -20573,7 +20558,7 @@
         <v>0.49006631959591201</v>
       </c>
       <c r="K5">
-        <f>(J5-J4)/J4*100</f>
+        <f t="shared" si="0"/>
         <v>3.5338722782886225</v>
       </c>
     </row>
@@ -20609,7 +20594,7 @@
         <v>0.48655939889754002</v>
       </c>
       <c r="K6">
-        <f>(J6-J5)/J5*100</f>
+        <f t="shared" si="0"/>
         <v>-0.71560124786042312</v>
       </c>
     </row>
@@ -20645,7 +20630,7 @@
         <v>0.49276880369089598</v>
       </c>
       <c r="K7">
-        <f>(J7-J6)/J6*100</f>
+        <f t="shared" si="0"/>
         <v>1.2761863828805711</v>
       </c>
       <c r="L7" t="s">
@@ -20684,7 +20669,7 @@
         <v>0.49802468267077799</v>
       </c>
       <c r="K8">
-        <f>(J8-J7)/J7*100</f>
+        <f t="shared" si="0"/>
         <v>1.0666014042518219</v>
       </c>
       <c r="L8" t="s">
@@ -20723,7 +20708,7 @@
         <v>0.490744047509448</v>
       </c>
       <c r="K9">
-        <f>(J9-J8)/J8*100</f>
+        <f t="shared" si="0"/>
         <v>-1.4619024748504061</v>
       </c>
       <c r="L9" s="5"/>
@@ -20760,7 +20745,7 @@
         <v>0.49850361118275099</v>
       </c>
       <c r="K10">
-        <f>(J10-J9)/J9*100</f>
+        <f t="shared" si="0"/>
         <v>1.5811834524908024</v>
       </c>
       <c r="L10" s="5"/>
@@ -20797,7 +20782,7 @@
         <v>0.49292519435904703</v>
       </c>
       <c r="K11">
-        <f>(J11-J10)/J10*100</f>
+        <f t="shared" si="0"/>
         <v>-1.1190323798193962</v>
       </c>
     </row>
@@ -20833,7 +20818,7 @@
         <v>0.49410534542065399</v>
       </c>
       <c r="K12">
-        <f>(J12-J11)/J11*100</f>
+        <f t="shared" si="0"/>
         <v>0.23941788228972874</v>
       </c>
     </row>
@@ -20869,7 +20854,7 @@
         <v>0.498375440617146</v>
       </c>
       <c r="K13">
-        <f>(J13-J12)/J12*100</f>
+        <f t="shared" si="0"/>
         <v>0.86420744808107586</v>
       </c>
     </row>
@@ -20905,7 +20890,7 @@
         <v>0.48865739349003701</v>
       </c>
       <c r="K14">
-        <f>(J14-J13)/J13*100</f>
+        <f t="shared" si="0"/>
         <v>-1.9499450284056914</v>
       </c>
     </row>
@@ -20941,7 +20926,7 @@
         <v>0.49709143124878702</v>
       </c>
       <c r="K15">
-        <f>(J15-J14)/J14*100</f>
+        <f t="shared" si="0"/>
         <v>1.7259613527001654</v>
       </c>
     </row>
@@ -20977,7 +20962,7 @@
         <v>0.49386130437827203</v>
       </c>
       <c r="K16">
-        <f>(J16-J15)/J15*100</f>
+        <f t="shared" si="0"/>
         <v>-0.64980538135616384</v>
       </c>
     </row>
@@ -21013,7 +20998,7 @@
         <v>0.49254186529585697</v>
       </c>
       <c r="K17">
-        <f>(J17-J16)/J16*100</f>
+        <f t="shared" si="0"/>
         <v>-0.26716794183259823</v>
       </c>
     </row>
@@ -21049,7 +21034,7 @@
         <v>0.490399789349872</v>
       </c>
       <c r="K18">
-        <f>(J18-J17)/J17*100</f>
+        <f t="shared" si="0"/>
         <v>-0.43490230920741918</v>
       </c>
     </row>
@@ -21085,7 +21070,7 @@
         <v>0.49524660941452298</v>
       </c>
       <c r="K19">
-        <f>(J19-J18)/J18*100</f>
+        <f t="shared" si="0"/>
         <v>0.98834056822831406</v>
       </c>
     </row>
@@ -21121,7 +21106,7 @@
         <v>0.493327376303559</v>
       </c>
       <c r="K20">
-        <f>(J20-J19)/J19*100</f>
+        <f t="shared" si="0"/>
         <v>-0.38753079263538709</v>
       </c>
     </row>
@@ -21157,7 +21142,7 @@
         <v>0.49894334549763297</v>
       </c>
       <c r="K21">
-        <f>(J21-J20)/J20*100</f>
+        <f t="shared" si="0"/>
         <v>1.1383858800121209</v>
       </c>
     </row>
@@ -21193,7 +21178,7 @@
         <v>0.50402054269899399</v>
       </c>
       <c r="K22">
-        <f>(J22-J21)/J21*100</f>
+        <f t="shared" si="0"/>
         <v>1.0175899222179532</v>
       </c>
     </row>
@@ -21229,7 +21214,7 @@
         <v>0.49737491282963597</v>
       </c>
       <c r="K23">
-        <f>(J23-J22)/J22*100</f>
+        <f t="shared" si="0"/>
         <v>-1.3185236129010025</v>
       </c>
     </row>
@@ -21265,7 +21250,7 @@
         <v>0.49335807094924</v>
       </c>
       <c r="K24">
-        <f>(J24-J23)/J23*100</f>
+        <f t="shared" si="0"/>
         <v>-0.8076084613000668</v>
       </c>
     </row>
@@ -21301,7 +21286,7 @@
         <v>0.49562245990838399</v>
       </c>
       <c r="K25">
-        <f>(J25-J24)/J24*100</f>
+        <f t="shared" si="0"/>
         <v>0.45897474724336035</v>
       </c>
     </row>
@@ -21337,7 +21322,7 @@
         <v>0.49300223293697198</v>
       </c>
       <c r="K26">
-        <f>(J26-J25)/J25*100</f>
+        <f t="shared" si="0"/>
         <v>-0.52867397734484423</v>
       </c>
     </row>
@@ -21373,7 +21358,7 @@
         <v>0.49509886211358201</v>
       </c>
       <c r="K27">
-        <f>(J27-J26)/J26*100</f>
+        <f t="shared" si="0"/>
         <v>0.42527782564385763</v>
       </c>
     </row>
@@ -21409,7 +21394,7 @@
         <v>0.493424568627297</v>
       </c>
       <c r="K28">
-        <f>(J28-J27)/J27*100</f>
+        <f t="shared" si="0"/>
         <v>-0.3381735678279344</v>
       </c>
       <c r="L28" s="2"/>
@@ -21446,7 +21431,7 @@
         <v>0.491172193313543</v>
       </c>
       <c r="K29">
-        <f>(J29-J28)/J28*100</f>
+        <f t="shared" si="0"/>
         <v>-0.45647814417107058</v>
       </c>
     </row>
@@ -21482,7 +21467,7 @@
         <v>0.49532861989321098</v>
       </c>
       <c r="K30">
-        <f>(J30-J29)/J29*100</f>
+        <f t="shared" si="0"/>
         <v>0.8462259542072017</v>
       </c>
     </row>
@@ -21518,7 +21503,7 @@
         <v>0.49977939666254501</v>
       </c>
       <c r="K31">
-        <f>(J31-J30)/J30*100</f>
+        <f t="shared" si="0"/>
         <v>0.89855029380163498</v>
       </c>
     </row>
@@ -21554,7 +21539,7 @@
         <v>0.49389621089056601</v>
       </c>
       <c r="K32">
-        <f>(J32-J31)/J31*100</f>
+        <f t="shared" si="0"/>
         <v>-1.1771565237114741</v>
       </c>
     </row>
@@ -21590,7 +21575,7 @@
         <v>0.491309196944829</v>
       </c>
       <c r="K33">
-        <f>(J33-J32)/J32*100</f>
+        <f t="shared" si="0"/>
         <v>-0.52379708300905103</v>
       </c>
       <c r="L33" s="2"/>
@@ -21627,7 +21612,7 @@
         <v>0.48401294605587297</v>
       </c>
       <c r="K34">
-        <f>(J34-J33)/J33*100</f>
+        <f t="shared" si="0"/>
         <v>-1.4850629571616483</v>
       </c>
       <c r="L34" s="5"/>
@@ -21664,7 +21649,7 @@
         <v>0.487362508100535</v>
       </c>
       <c r="K35" s="5">
-        <f>(J35-J34)/J34*100</f>
+        <f t="shared" ref="K35:K61" si="1">(J35-J34)/J34*100</f>
         <v>0.69203976297678649</v>
       </c>
     </row>
@@ -21700,7 +21685,7 @@
         <v>0.49197610364233102</v>
       </c>
       <c r="K36">
-        <f>(J36-J35)/J35*100</f>
+        <f t="shared" si="1"/>
         <v>0.94664555953990459</v>
       </c>
     </row>
@@ -21736,7 +21721,7 @@
         <v>0.498907082959195</v>
       </c>
       <c r="K37">
-        <f>(J37-J36)/J36*100</f>
+        <f t="shared" si="1"/>
         <v>1.4088040588863311</v>
       </c>
     </row>
@@ -21772,7 +21757,7 @@
         <v>0.50044301178333805</v>
       </c>
       <c r="K38" s="5">
-        <f>(J38-J37)/J37*100</f>
+        <f t="shared" si="1"/>
         <v>0.30785869285176554</v>
       </c>
     </row>
@@ -21808,7 +21793,7 @@
         <v>0.49109529189610701</v>
       </c>
       <c r="K39">
-        <f>(J39-J38)/J38*100</f>
+        <f t="shared" si="1"/>
         <v>-1.8678889837866388</v>
       </c>
     </row>
@@ -21844,7 +21829,7 @@
         <v>0.49581907443331402</v>
       </c>
       <c r="K40">
-        <f>(J40-J39)/J39*100</f>
+        <f t="shared" si="1"/>
         <v>0.9618871561502047</v>
       </c>
     </row>
@@ -21880,7 +21865,7 @@
         <v>0.50140284656450296</v>
       </c>
       <c r="K41">
-        <f>(J41-J40)/J40*100</f>
+        <f t="shared" si="1"/>
         <v>1.1261713030243523</v>
       </c>
     </row>
@@ -21916,7 +21901,7 @@
         <v>0.49801696093083597</v>
       </c>
       <c r="K42">
-        <f>(J42-J41)/J41*100</f>
+        <f t="shared" si="1"/>
         <v>-0.67528249128745388</v>
       </c>
     </row>
@@ -21952,7 +21937,7 @@
         <v>0.49736547844110401</v>
       </c>
       <c r="K43">
-        <f>(J43-J42)/J42*100</f>
+        <f t="shared" si="1"/>
         <v>-0.13081532173407953</v>
       </c>
     </row>
@@ -21988,7 +21973,7 @@
         <v>0.49840791561368902</v>
       </c>
       <c r="K44">
-        <f>(J44-J43)/J43*100</f>
+        <f t="shared" si="1"/>
         <v>0.20959178265695622</v>
       </c>
     </row>
@@ -22024,7 +22009,7 @@
         <v>0.50592542253367501</v>
       </c>
       <c r="K45" s="2">
-        <f>(J45-J44)/J44*100</f>
+        <f t="shared" si="1"/>
         <v>1.5083040787443527</v>
       </c>
       <c r="L45" s="2" t="s">
@@ -22063,7 +22048,7 @@
         <v>0.50249477675322896</v>
       </c>
       <c r="K46">
-        <f>(J46-J45)/J45*100</f>
+        <f t="shared" si="1"/>
         <v>-0.67809317888501708</v>
       </c>
     </row>
@@ -22099,7 +22084,7 @@
         <v>0.50577925002558999</v>
       </c>
       <c r="K47">
-        <f>(J47-J46)/J46*100</f>
+        <f t="shared" si="1"/>
         <v>0.65363331606808128</v>
       </c>
       <c r="L47" t="s">
@@ -22138,7 +22123,7 @@
         <v>0.49608035397323302</v>
       </c>
       <c r="K48">
-        <f>(J48-J47)/J47*100</f>
+        <f t="shared" si="1"/>
         <v>-1.9176144635957775</v>
       </c>
       <c r="L48" t="s">
@@ -22177,7 +22162,7 @@
         <v>0.49776768037604202</v>
       </c>
       <c r="K49">
-        <f>(J49-J48)/J48*100</f>
+        <f t="shared" si="1"/>
         <v>0.34013167207585898</v>
       </c>
     </row>
@@ -22213,7 +22198,7 @@
         <v>0.49861770253618198</v>
       </c>
       <c r="K50" s="5">
-        <f>(J50-J49)/J49*100</f>
+        <f t="shared" si="1"/>
         <v>0.17076684438367062</v>
       </c>
       <c r="L50"/>
@@ -22250,7 +22235,7 @@
         <v>0.49360005676195901</v>
       </c>
       <c r="K51">
-        <f>(J51-J50)/J50*100</f>
+        <f t="shared" si="1"/>
         <v>-1.0063111976773178</v>
       </c>
     </row>
@@ -22286,7 +22271,7 @@
         <v>0.49867824527127502</v>
       </c>
       <c r="K52">
-        <f>(J52-J51)/J51*100</f>
+        <f t="shared" si="1"/>
         <v>1.0288063057831045</v>
       </c>
     </row>
@@ -22322,7 +22307,7 @@
         <v>0.50121932060434704</v>
       </c>
       <c r="K53">
-        <f>(J53-J52)/J52*100</f>
+        <f t="shared" si="1"/>
         <v>0.50956209884185011</v>
       </c>
     </row>
@@ -22358,7 +22343,7 @@
         <v>0.49833864490131102</v>
       </c>
       <c r="K54" s="5">
-        <f>(J54-J53)/J53*100</f>
+        <f t="shared" si="1"/>
         <v>-0.57473357163539351</v>
       </c>
       <c r="L54"/>
@@ -22395,7 +22380,7 @@
         <v>0.50319018007280902</v>
       </c>
       <c r="K55">
-        <f>(J55-J54)/J54*100</f>
+        <f t="shared" si="1"/>
         <v>0.97354183167126818</v>
       </c>
     </row>
@@ -22431,7 +22416,7 @@
         <v>0.50340598405432702</v>
       </c>
       <c r="K56">
-        <f>(J56-J55)/J55*100</f>
+        <f t="shared" si="1"/>
         <v>4.2887160772248509E-2</v>
       </c>
     </row>
@@ -22467,7 +22452,7 @@
         <v>0.49810505476454597</v>
       </c>
       <c r="K57">
-        <f>(J57-J56)/J56*100</f>
+        <f t="shared" si="1"/>
         <v>-1.0530127685587805</v>
       </c>
     </row>
@@ -22503,7 +22488,7 @@
         <v>0.498283888431375</v>
       </c>
       <c r="K58">
-        <f>(J58-J57)/J57*100</f>
+        <f t="shared" si="1"/>
         <v>3.5902801049381115E-2</v>
       </c>
     </row>
@@ -22539,7 +22524,7 @@
         <v>0.49897236303785802</v>
       </c>
       <c r="K59">
-        <f>(J59-J58)/J58*100</f>
+        <f t="shared" si="1"/>
         <v>0.13816914864544</v>
       </c>
     </row>
@@ -22575,7 +22560,7 @@
         <v>0.50353305888357902</v>
       </c>
       <c r="K60">
-        <f>(J60-J59)/J59*100</f>
+        <f t="shared" si="1"/>
         <v>0.91401772594266251</v>
       </c>
     </row>
@@ -22611,7 +22596,7 @@
         <v>0.50104654970145801</v>
       </c>
       <c r="K61">
-        <f>(J61-J60)/J60*100</f>
+        <f t="shared" si="1"/>
         <v>-0.49381249915031133</v>
       </c>
       <c r="L61" t="s">
